--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/8_Antalya_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/8_Antalya_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F1720C-B029-447D-8688-A2798240E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD87C7E-7037-47E7-8F0E-749CA0201016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{09D24209-B4DB-463D-8094-9B47C6B2E170}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{9474E517-D8CE-4B52-A51A-F9227F3D2B82}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -965,15 +965,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6EF08F1F-44D1-41CC-A101-ABBE06AF6318}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{07E17C6C-11BE-4F44-96D8-931EA8C458E3}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0D9FDEA9-63E6-46A8-AD05-91E0EDE999CF}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D3047D61-4486-4CEC-9CB1-93A9591A7F97}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{A190A7E4-92D8-4BEA-8097-709586D0D6BD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{FAEA26D4-A881-4A8E-B9D8-B924C0F3869F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B8A7768E-1F71-4E0D-B45E-60CCE591F23F}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{7E885289-1DB1-498B-B66F-227438D04481}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{A76A6524-ED1F-4470-8CA9-77D54AFC6DE9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{55FC6437-EDAF-4FB4-A316-9CA8B63849E1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1732F63F-99F3-415E-8BDC-A752F7865392}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{DCA1DD23-0D1D-46CD-80B6-CE862A71A93A}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BB74E51C-9C27-4528-8CF9-FD664494A63E}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{750FC2DF-A67F-42BB-B7AC-C59D41A546E2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{86873A28-F037-4161-A12E-FBD5B359FF2A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{FAF8ABCC-138C-4C9B-B535-63F10A48C2B4}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{E01B55A4-755A-43BC-9010-CA4C7BD5A75E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{BEFEBE96-037D-4E24-B0D0-E50DA232C82B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FF583D-10C9-4CFF-9ACE-D9515CBA4178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA98333A-BA32-4725-9AD4-2DD57840DD11}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2666,18 +2666,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F81F14BF-71EE-4789-9A54-8E65C4900847}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C184DA5-DDAB-4AE5-88AB-06EA7F472BFD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14AFCDFB-50DF-464A-8D4E-B2053FA1E14D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33D1BD65-8C61-443B-B0B5-C47156FFB039}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EE8F732-CE75-4ABB-9ACB-867ADC7B8BD5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1B400EA7-C23B-466E-A841-4F09E4D0E759}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E3DD570-0F08-4CD5-90A0-6578D08582EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D41E219-94B9-491D-B628-597810916816}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DE61821-6838-4436-BE88-260C7E9EA732}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9BFC11DA-9287-4F36-81BE-6DC7567CDF1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45BF5D3B-558E-46B8-834D-14E4AA60E35C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DD6FF75-D3C0-4A03-B381-947CC7195278}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D33D908B-0073-42B2-AF3E-DFCA263E1F70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E4EA331-C569-4E11-90FD-18EA111DED59}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9C67C5C7-1730-4858-9962-30E7B5F6F19C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96161587-BA63-49C3-B5B3-88025FC77B38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4FBF442-04B3-40AE-B4A5-3E8A28FC8FB7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A72DA97F-B658-43CB-9AE9-584EE0B0378F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AD90899-1C7A-489C-BA57-32E6613E8173}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A86CB25B-74DA-403B-A93A-49315E683624}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56E4ABF0-EC9D-41D2-9097-EA5A41AD5BAE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5B28939F-9B6A-46C2-BF11-CBC87A76CC6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E3E69BE-7985-4F43-A6EB-AE000A777C1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0122C1CC-351B-4743-A5D8-51EF5A28E093}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2690,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D803EB0-27A4-41C2-9655-3396B3EB6B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71102CC0-FCF2-48CE-BFCF-B78540D05B0A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -4024,18 +4024,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FB883E1-22F6-431E-95B6-8B8EA6762264}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90778C33-B141-43B9-BFA6-6C2002791A0E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{29C4E443-A4E9-4A00-864D-49CF58AAA926}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8998E6A5-CCF4-4AB3-8B7A-12BCFE013FE6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAD92F57-B4E3-48C3-8D7C-D9050D721436}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{47E38497-DA29-4CFF-87EF-537DDB7EFC57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF72993D-4565-4C94-8EF5-CF720821359F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6A8EEFC-295D-42E6-8B64-69E5327248D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10962E1D-C969-4E9E-908A-A13BFE657E20}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0245BB9B-0876-47B1-9F5C-CBEF1837E307}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2C039B7-2FFA-4152-8B90-162035D14B0C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBF0D939-02AD-4AD2-B364-0396A5B87D7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C50FD9CC-0B96-4748-80C4-D89BFD276147}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1FCF202-8531-474F-B2FE-07BF6F99ED29}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0A45774-2CB0-4044-8F55-1AFE4CC31D5C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3A02FDC5-3335-4A14-8004-ADC0B781E3E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B648EB60-80A3-48E0-A1F7-758952A4055A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8A97C29D-E67E-4AF3-A3D6-0465BED309E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C24A32D5-F76D-4095-8BBF-F99A34DADFE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B6116DEC-41DF-4F9F-9DB1-FB5AB73F50A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE134FF4-F138-43B1-8D0A-0C3A64263D74}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{29B459FB-85DA-49B5-9606-814036D5B115}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2A1E7CF-9CFF-453D-B4A3-AF1CC45B1BAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C3C6C67-F35C-4234-99CE-7764FEC37245}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4048,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DF3CA1-3F25-41A2-BA1F-639ED4E9DD72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C57BDE-B903-4876-B98C-1E9BE7FE088B}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5382,18 +5382,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D68F524C-AE86-41B6-8A1F-A0971AD30865}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A82D290-B896-489A-BF3D-87500999A9F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D642C4A-17A0-4BA9-9870-5ABE2B693A7B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13570AD4-6B15-4415-AFB2-3CE45A854433}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FC0C027-65DB-40F0-9F91-63760C0CD088}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2DF5EC6A-C1FA-4E0A-A312-6A254A536CE3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE92FD70-FC1A-434A-A52D-B2237609AD24}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FBFCA29-23FC-484B-A53C-E51522107D42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83974FA5-0764-4719-ADAD-303FB8D66CA5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FA92D7A5-5833-463C-A4B5-FCAC81715739}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4032EE17-2637-467D-9235-7C790514614D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CDAC749-924C-4CEC-A5BD-87B3875D554A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFEE81D3-F8DC-44C9-9A3C-3099747FCE7D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CD23B05-909B-4F20-AA67-84B3D6C4EA9A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B63B49F-14C3-4612-9BCF-D1EB3F1379E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC54A595-23FE-4573-B4FF-2529D1EBFC8A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5EB28287-8347-4714-8020-FF4DEECB0054}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C162B99E-C778-4C01-9F3A-4AD6CAE21CBE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{895F31BB-9F81-4578-B3D2-65B613F5F1AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C743049A-E8FF-422D-91A9-9A915044877C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37BC6403-A65C-41E6-A247-9EAD965A2A36}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7573D1C0-6C44-4CE2-A045-9ABC508B08E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5691D8B5-2295-4C2C-A4B3-6DF7A52F7293}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D3C84AF-18DC-4702-BB48-C24C2F2B2178}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5406,7 +5406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80DDCBF-B9D5-4ED2-829D-3499D49E621C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382CF31C-3C41-4D1B-B6A6-8BC2ABAC9E0E}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6732,18 +6732,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA1034EC-4D8D-4AEE-9A87-AB7B57341CBF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89778751-FB59-404D-B8E6-1EF2473CA532}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E24F5479-BC7B-4D82-B314-03FA897EA84B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5332F7F8-4D28-4E98-AE1E-24DB12AE0BFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{792336C3-DEAD-4393-B3F3-3B38C22E752E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA0EC889-41BA-43F0-94E9-87D72477016D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09D715DA-E925-448A-BA1D-FFE8A2946C69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24F1E766-304B-4651-B575-1E9BA1C159DD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28FF4A37-7711-4AC8-9F52-A7EA712AA340}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D5C7B572-3B33-4261-A36E-8FD5F2CDE0E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A87D1243-9F2B-44F6-8617-F8F783BC7D66}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C480C9A8-7F4D-4B95-97F0-E2AA084070D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FAA0EB63-20AC-43A4-8419-71838C3DEB70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F72D8C80-DCE4-44EC-9661-2A0E60215C12}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CCC30AC2-AEF5-4F8E-BD70-5CD3D3426361}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{391C42F2-73EC-4B24-BE30-5F927EA945CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CE46766-A9F8-403F-AE4F-D27003BA54BD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{390260BD-49EE-4E8A-BB0E-ACF648EFFA7B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83453C28-0C4F-4B64-A86D-00A4DB1D1A8D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB61EDB3-578B-4129-ADDE-F5138C412FC4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{391459D7-2008-48A4-B99C-47330F920FC0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{29427352-9EDA-4938-BD59-4272087611FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB873150-20C0-4448-B562-C22B18ED22AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A877EED8-501D-4A9B-92B6-9AA1BAEE88A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6756,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45D4276-2E31-4B85-A584-6AFDCE193FFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8764CCA6-A37F-4588-92F2-A550C5EBC329}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8075,18 +8075,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{327A9140-6C9C-44FC-9C30-BCFE1C18E30A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11DC3434-DA52-4968-B474-615D1ABCF43D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0207EEC-AA7E-4DC5-B449-8FE9D24DC42E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DD69B1DC-2B69-4016-A440-DD0EF7B09272}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D706AA24-E57E-4487-B671-1824D471151A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41043BDC-B6B4-411F-A5AF-72F5D2EC6C80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18233AD1-1E2C-4050-8F9E-E75AB94A9098}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27CE68E3-EEF8-4659-81E0-81399C9C357D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{729A6152-589B-42FC-A203-C34425691060}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E6BB3339-F07F-4266-9678-B28795691296}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{628F2B5D-B66A-42AD-AA23-0CFD78F4C8B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06773B69-DF92-499A-AA8E-6979D4D92CBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A57E3C88-4023-409D-A98B-B50863E29BAF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC4B85B1-122F-4A0E-825C-149147B13FAE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A2E5BCD-5D97-4D87-8A29-1389E0B29333}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D973C6F-E1D7-4D4B-B788-7A8B29BA6F14}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{557F89DA-9266-4EB1-9621-DB99E023D808}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FAAC198D-9419-4209-968E-50EC9A85852E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D14E0E9-FC47-4CD3-A63F-F2C32702E6A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DAE9B36-94B1-4F6C-8B3F-D1002544C9DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5194AB5E-F613-44BE-AAC4-A1C89CF28435}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CF6C323C-5BAD-4BAE-AE17-EE1C29E1A275}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0521AC7E-4871-4286-8D18-B98E0B85A094}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{198F1DC1-5092-4BB7-AE7A-EE4F76D36613}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8099,7 +8099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284FF100-243D-4A6B-84D5-65B7146CAE64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA12F48-4325-4072-A35C-51CE37A412D6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9414,18 +9414,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{837E575D-CC9E-480F-B1FA-629A9A20C11C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FE6F335-7532-41B3-A2A3-2DD00684A74B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B651DE48-7F56-40C8-93CD-F45F4C678EA5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7866C0D-96E4-4F7C-866A-2A822AA6D56E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67371A8D-CA89-4E5F-BF45-532342F7DACE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE72DF30-1771-4841-8BBC-5DCE426F573E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{354DA9C5-C31E-4FDA-9FB5-BA1DDD4B84C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C085FE4C-B1F5-458B-9588-825688C887FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEA5A811-4512-447E-9220-A8301E772EA3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{79A9C563-3BCF-4FFA-8805-939C0AC6890C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BF571D8-A717-4B71-901D-A98FEEF8990B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8453BC5F-A8F7-45BF-B138-1B26266FCC68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F48A10AE-AB5E-44D1-8F44-7CF2BD03C0C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{569E82C5-8B2D-42DA-A18D-B83A23381200}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CCA65B5E-E3B4-476B-82DE-BAB42033DB8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D347E68E-9C10-4966-9385-B80CE0E2E03D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B68EB3A-1545-4EA2-9679-23634807DF14}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{73495626-9828-4D2E-BE66-B121B1D3AEA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FA935B4-1E1A-4E61-9042-8EB81B2486B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9B3EC96-DA79-4E52-9278-232D4938599A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B505E19D-AB07-468F-BE9C-D7DBED1B4531}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4092F20-4747-4489-9886-02C2CF19BDED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE5FE900-F539-4A7A-A988-1012A09BC0D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D4C467E-F5D5-4B44-84FF-B438559EF48B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9438,7 +9438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FC92FE-7EFB-4349-A0C0-C63EEBB9C5C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C163BE-629D-4833-AB81-9270504E3A18}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10753,18 +10753,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3111E0FC-F76D-4DDD-8ED3-25EB9DD9EA5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD990A9A-5EEF-4555-A81A-14FA375E4703}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD7A0F51-4DAA-4B90-8253-7B02EAC1FB0F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7EFB4238-BE35-46D7-95BA-40382F60A6B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17633FC2-9687-46A9-AD78-1D8656C74336}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CA2ACAB3-41EE-4790-825D-DBB5C75FB7E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46643C73-987E-44FD-88F6-8CFA8C2F7C9E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{245C98D2-4ED1-4386-B275-B0A2F3B21AFC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01AC7588-E236-4D1F-8A90-31A3FE675BF4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9620EA9E-9661-4AF5-B151-60AF99E90F4E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D7F94B0-E5F7-420D-ADBA-03B651EDFA59}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14161C37-6B5E-4DB3-871F-5A2B6D7E8F0D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E1A4311-99D6-4A94-AF53-DA220D53039D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD4D2D53-2228-4B3E-868A-A51186E3A5C4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71AE594F-8544-4EB8-8F09-0246F25C16AB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{74ABD6C6-55C4-4827-A160-80D1991474C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8983ADA-EE90-4359-B372-135CB05FECA5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA143E46-9462-478F-A94B-3033B025D6FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C32AF4C-3ABE-452B-B1FC-2A101DD836DE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2D83EB1-66BE-4C18-97DB-8953195D8B76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDAE91CB-A210-4CF5-B726-A51229A437C4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F4CE69EC-74CA-43A0-9CCA-4B0B4EC55A3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2775317D-B3D1-42AC-A4BF-9DC8B11929FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{595F0AD5-7B26-40B6-9584-1DEA0520BCF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10777,7 +10777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09145431-AD40-4D1B-BC32-9AF4CE28E391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DDF994-329A-4666-BBE8-B944BB711201}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12092,18 +12092,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9AB4222-8D02-410E-AE0B-5FC0F1AEADF8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDFD7774-40A0-4072-A3C2-86E392496AC8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8500B818-3579-4852-977A-E07DD6EB2AE8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1DD1DE12-1830-4324-AE39-1B932E3DD92B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F758016-0E43-4F98-9274-1D9A9977DF86}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{69F8BEFC-0F2A-4A6F-9174-4E254B7A75F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF3BBC0D-1536-448F-AFB0-22F3EAC929DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC7DF5AF-58D0-4007-8261-39B1A0841A23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9576564E-2567-440F-A65E-2B88FB2B82B3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1053A6D4-FA5B-4D95-8E80-340CE6CE9594}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6769CDB-8BD3-4E07-B560-47147A663E61}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F759158D-5291-4FD0-B3A8-EC43649CEE9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF57CFEE-54F9-4F3D-BB73-C0C5E4B538A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86193630-B535-40D9-BEEE-DF7074470D0E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9F9F63C-338B-45FA-8A43-116F0A28E69D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDCF6291-78B3-49BA-AD9B-9042B63FC930}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24696E34-3BFC-4B19-9DBB-E90756101D7B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F6F67989-814C-46E5-8C33-CF52D522F350}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F6936B3-40D7-4794-87C3-C085DD19DBB4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2C2AF56-DB8D-4068-83EA-4358DF3CA5FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C2F11AD-D3DB-4C64-AC21-CC7ED0242E16}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{19DAD392-5649-4F8F-8638-151B897DA84B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62227EAF-982A-475B-BE08-1DF08DFDA291}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19DDE5DD-E246-41E8-B29D-1530439CF806}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12116,7 +12116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905DD555-D4EF-4F9D-B549-6C89A8D7813C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F6D30F-CB79-46F8-8714-F16CB31A50AD}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13424,18 +13424,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D407A7CA-0C87-4B03-AD28-3D5F06E7849A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C78A106-AE11-49F1-AAC3-7E42A2C54375}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E050B31-D996-4FAF-9C6D-E80FCF3A3957}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E823C8B-6FEC-4FA1-8C76-F269EFA52E8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68807F85-19E4-4070-88E9-902ACA08BA1E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{89D81217-88EE-4D15-B648-A0126552DD23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5413528F-6BA8-4381-9236-E0F5EA76A6F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87D35CDC-247F-4258-BEBC-31E9E97A3A99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC37947D-8DC3-47DA-99BC-82EFE3686760}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{248224B4-38A9-4E69-9A6A-F3A66F6F8ECA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19680A38-3F0B-43F8-BFF6-B9374F018BF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC0E9E70-C869-4793-832E-0C72B057F6BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADC2BC62-7BC9-4B21-9692-BB9387ECD731}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F2A5AF9-3B4C-45A2-AAAE-488332B4641F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68AD779F-602F-4378-B3E2-F6D66D4F6466}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9373EF5-86C1-4345-9510-FC522AD62664}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F28A9AC-8745-418F-AD93-3BBB5610919A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A78ECAED-4BDD-446A-9824-F9EB1057F056}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45C80D30-756C-41C6-8DA2-86F335758555}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{210BD95C-2C5D-4CC5-A3FA-0B56C2BA3C02}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24A9942C-D6FA-4EA0-BA48-3AD7524E2818}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9A4ECE99-0B57-4A93-9D54-7DC6AD0129EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A89A3F3C-5E4E-46A7-8D06-408A9DD9795F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{586B9B8B-3034-49C4-BDDB-F80EE3AD12B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13448,7 +13448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02FC0BC-F949-4E60-88C2-9A7AFA0913D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BA0750-B798-46B9-A58F-ABB964292DA3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14782,18 +14782,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4BFB9866-B3B5-4C17-840B-696A8425468C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{475D0994-6D94-4B17-B1FB-7FA28194E2B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C6940F6-079B-4990-8180-E66CA8DE09C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4072D18-9EF2-4838-8184-30C550A24EFA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E5981FA-68BD-45AF-9B09-398FFFC7B70A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1580527F-B8BB-4AF9-872B-121B911B528C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BD11EC4-F8B6-4CD8-BC67-841555104432}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11F0975F-DF5E-44FB-BEA0-6D85F1B5BCBE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01596C5A-A311-406A-A540-B02670C4899D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ED0B8067-664C-4F9F-9FE3-829B66992701}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2694F411-5243-4CDB-8A40-CBB24938D4B7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A01822D-8F55-4A2D-AC48-711B9BC6808B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{860182FA-8581-4BD2-9992-04079EF3C5CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{839B79E3-9AF1-4DE4-8745-F5EE39359CC1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{72ACA6C1-B7BE-4252-ABD3-DC697988A54D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B5B1C2D-1E1A-47EF-A859-F917F7E21967}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1748F207-F450-4AC0-B7CD-B6DF966CB90E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{70E801BE-05D9-4441-8571-9C2A71C9B835}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5092D05-F24B-4975-B962-2452B2703136}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFF7FCDA-BBEE-4688-B713-06E9E1771A88}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19794B14-AD7B-4C69-A8E6-997C42970FFB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C470E7E1-0C01-4F5A-89EE-1FECDBA762D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D7706CF-B637-4DAE-A853-640C0AF06BD6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDF07CDD-9108-4848-BB20-CE7A0F0A3B0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14806,7 +14806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C139D091-F288-42D4-AE63-76ECE342D1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9ECD7C-0FB5-4586-8EAC-E781D660370E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16140,18 +16140,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB21EC75-3478-4944-A658-839CAA63F382}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8232E07-D426-4A88-922A-7CDAA6CD458B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35A1F311-B648-4994-9BC3-3DD7BA013C5B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC0E791B-79B0-4A80-9B45-72841DF0A71C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8C71F59-B525-40C4-88D4-D22E1C596DC1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{890C3E3B-AF3A-44BD-A908-50F62A777541}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{598266B4-FB78-4534-A6CF-3AE6E66E036E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99E4E8B7-62AA-4274-9540-3C6D3A57C271}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF18D806-B6E6-48B5-886D-FB8C08E6E57C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F449AF34-A684-493E-A213-29685DA99DA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3D21DEA-EA09-4B26-B3C0-3944C514792A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0073EDB8-EE63-46D3-A3E8-250625E46EB4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{651290EC-6BDB-4B59-A299-D1AB67918EB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F704D3D4-FF16-4620-B14F-64F8DE3A4CE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8AB9DFD7-BB5B-4FA9-B3D3-7D5934D29899}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95680AA2-3F86-49DE-8F84-6BB5CD7770C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F180F08-14E9-40CB-A56F-34EF35E10AD1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B5595B2A-714F-4CBB-A92A-F163B6CE0088}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B1C0E99-CE34-4837-A95D-88C15DDA8142}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E84F7A8F-1A7C-45D4-946E-EE17508A7C1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2728399-9279-4A61-B9AD-262A63C9BD97}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{60BA8DAD-5C0D-4CD5-8410-D52AD5C5FC6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9196C682-6016-4752-86B2-3F0063BE8DA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{553B0643-01DF-4C47-9C36-4BE1EDCD82DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16164,7 +16164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4107D9-FA3E-4034-9606-7C99BFCC1E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689BFEB7-CC43-4FBF-BEFC-8EF1A5892A69}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17498,18 +17498,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B70CAA1-D418-4BE5-8616-63DC336299D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75860DA1-908E-421D-8C71-5A7861DA6F60}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB624C1E-669B-487E-AD41-A34F13FEC11A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02EB5713-A84F-42C5-A408-21C2870FA3F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F890BFC-8535-41B5-A3F0-9F05F5FDC146}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F36C78D8-FD05-4444-9B9E-83BC294A6A92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BDB49A9-11FD-4A7B-8992-D0AA644D2629}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FCF2EE8-5356-418A-A9EE-8A8872974C41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38C2C9DC-0218-47D9-82D3-801193271C5B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{973D900C-C86A-4C01-A9B0-E3CE77270AF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5115100-453C-4B3F-87E4-5CE090F8E1D0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2AAD6DF-3FE6-4A2D-B170-31F30C969B6D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94727FAA-4C9C-451C-83E2-8A07E196300D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3142100E-A43E-45F7-8A9D-3F463B0F12B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC50AF5C-6C66-46C5-998C-4A8335ED1330}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8FF30916-7D75-4C75-9230-DFE876A59CF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD6A03D5-8A6D-47FA-BAA7-07222A6F36DB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{03CD0F2B-07A6-4A8F-828E-D1258C864CF3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA949E5B-1763-4937-A82E-2708B6BE923D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8674FD68-363E-4BE8-811A-F271297598C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4F87264E-8552-4E08-8F3D-4B43282F4F5B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{84228016-5C41-4351-9752-159B2262B4BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C628427-8C67-45ED-B4E9-A8DAC9D21F46}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B56E7A6C-65E8-47F2-90EA-7C9B6BAAC478}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
